--- a/book_themes_alignment_data/Karim_assignments_v1_done.xlsx
+++ b/book_themes_alignment_data/Karim_assignments_v1_done.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://synapseculture-my.sharepoint.com/personal/a_diler_synapsec_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_08B56EDCDB46A40E62355476589F263E8167AD23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121C0494-F8DF-444D-9391-524AD6B9F9F8}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_08B56EDCDB46A40E62355476589F263E8167AD23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20463399-55D1-4606-8C27-CD3946C22935}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="21480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>UUID</t>
   </si>
@@ -200,7 +200,7 @@
     <t>cow-boy</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>FRJ</t>
   </si>
   <si>
     <t>ecabbab7-da16-4039-9bda-8caa5994845a</t>
@@ -236,18 +236,27 @@
     <t>lecture de l'image</t>
   </si>
   <si>
+    <t>YBC</t>
+  </si>
+  <si>
     <t>07be272a-225f-486e-b240-5862179de2ed</t>
   </si>
   <si>
     <t>semaine</t>
   </si>
   <si>
+    <t>5HCK</t>
+  </si>
+  <si>
     <t>5f2001f3-4ee1-4c27-a0c5-90f527b04f14</t>
   </si>
   <si>
     <t>roller</t>
   </si>
   <si>
+    <t>SFG</t>
+  </si>
+  <si>
     <t>9f2b2082-7ee2-4c7b-af17-2e96a1f915c0</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
     <t>relation enfant, adulte</t>
   </si>
   <si>
+    <t>YFM</t>
+  </si>
+  <si>
     <t>3273c6a5-7bf8-4983-a32c-f72e3399b18c</t>
   </si>
   <si>
@@ -287,6 +299,9 @@
     <t>regard des autres</t>
   </si>
   <si>
+    <t>YXPB</t>
+  </si>
+  <si>
     <t>4166415e-4fe4-4635-8550-4156a3d2f370</t>
   </si>
   <si>
@@ -311,6 +326,9 @@
     <t>recherche de ses origines</t>
   </si>
   <si>
+    <t>FXN</t>
+  </si>
+  <si>
     <t>0435a788-50fb-47a7-8fc2-2d30b5c79d82</t>
   </si>
   <si>
@@ -335,6 +353,9 @@
     <t>eau</t>
   </si>
   <si>
+    <t>WNCS2</t>
+  </si>
+  <si>
     <t>cdf2ae21-afd0-4782-a3f6-df08856723c2</t>
   </si>
   <si>
@@ -387,6 +408,9 @@
   </si>
   <si>
     <t>conte détourné, boucle d'or et les 3 ours</t>
+  </si>
+  <si>
+    <t>YFHG</t>
   </si>
   <si>
     <t>f4e6bb0d-f686-4348-ab6b-4ab17f03d1ca</t>
@@ -760,13 +784,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1009,230 +1034,230 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
